--- a/uploads/Student Upload 1.xlsx
+++ b/uploads/Student Upload 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp1\htdocs\ICC_STUDENT_PORTAL.v3\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\clark\xampp\htdocs\ICC-Student-Portal\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474BBCC-327A-4FCC-9603-7D90953C297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD927AE-9B25-4951-B7B5-ECBAE25F61FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7293850C-0347-4DE0-9918-39416379DEAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7293850C-0347-4DE0-9918-39416379DEAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Student Number</t>
   </si>
@@ -58,69 +48,21 @@
     <t>Year Level</t>
   </si>
   <si>
-    <t>1234-0001</t>
-  </si>
-  <si>
     <t>Jasper</t>
   </si>
   <si>
     <t>Mercados</t>
   </si>
   <si>
-    <t>Garcia</t>
-  </si>
-  <si>
     <t>09102940192</t>
   </si>
   <si>
     <t>asdasdas@test.com</t>
   </si>
   <si>
-    <t>1234-0002</t>
-  </si>
-  <si>
     <t>Mercado</t>
   </si>
   <si>
-    <t>1234-0003</t>
-  </si>
-  <si>
-    <t>1234-0004</t>
-  </si>
-  <si>
-    <t>1234-0005</t>
-  </si>
-  <si>
-    <t>Mercadod</t>
-  </si>
-  <si>
-    <t>1234-0006</t>
-  </si>
-  <si>
-    <t>1234-0007</t>
-  </si>
-  <si>
-    <t>1234-0008</t>
-  </si>
-  <si>
-    <t>Mercadof</t>
-  </si>
-  <si>
-    <t>1234-0009</t>
-  </si>
-  <si>
-    <t>1234-0010</t>
-  </si>
-  <si>
-    <t>1234-0011</t>
-  </si>
-  <si>
-    <t>1234-0012</t>
-  </si>
-  <si>
-    <t>1234-0013</t>
-  </si>
-  <si>
     <t>Earl</t>
   </si>
   <si>
@@ -128,13 +70,49 @@
   </si>
   <si>
     <t>Rostata</t>
+  </si>
+  <si>
+    <t>1000-0001</t>
+  </si>
+  <si>
+    <t>1000-0002</t>
+  </si>
+  <si>
+    <t>1000-0003</t>
+  </si>
+  <si>
+    <t>1000-0004</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Aldwin</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Gaviria</t>
+  </si>
+  <si>
+    <t>Pineda</t>
+  </si>
+  <si>
+    <t>Course Code</t>
+  </si>
+  <si>
+    <t>BSCS</t>
+  </si>
+  <si>
+    <t>BSBA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +132,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -567,15 +551,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EFC39E-46EB-456E-98DD-6964E93A6531}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,326 +585,126 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{67F8666B-01A8-4C88-AF17-325DBB2B9978}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{0A9824EA-6715-4ABC-9875-45614EB85AC5}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{CECC8F8E-BC84-4F59-B6DA-4F88014BA773}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{A9844351-A384-4D60-9D4F-5427B662DD51}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{339A2C9E-4F8C-418A-88D2-131D56C2197A}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{6BA04FDC-FE72-4C84-A601-3796719EA39F}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{BAF22D95-2E49-42A1-8002-69851051F895}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{8A03313F-503E-4C9D-9E65-E9AA8AD1196A}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{7EE66E44-DB0C-4F5A-8A12-5C4C26845D11}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{4A1218AE-D87A-4DCF-AA7D-D2DE348E297C}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{AC0FC489-E643-4CDC-BB6D-0331EF982C7A}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{1D203738-744B-4328-A6D0-86C9A2BE6001}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{ED98D33D-16DC-415A-B4CD-E3F22F06984C}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{67F8666B-01A8-4C88-AF17-325DBB2B9978}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{0A9824EA-6715-4ABC-9875-45614EB85AC5}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{CECC8F8E-BC84-4F59-B6DA-4F88014BA773}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{A9844351-A384-4D60-9D4F-5427B662DD51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/Student Upload 1.xlsx
+++ b/uploads/Student Upload 1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\clark\xampp\htdocs\ICC-Student-Portal\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_7.4\htdocs\ICC_STUDENT_PORTAL\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD927AE-9B25-4951-B7B5-ECBAE25F61FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7293850C-0347-4DE0-9918-39416379DEAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EFC39E-46EB-456E-98DD-6964E93A6531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +700,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{67F8666B-01A8-4C88-AF17-325DBB2B9978}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{0A9824EA-6715-4ABC-9875-45614EB85AC5}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{CECC8F8E-BC84-4F59-B6DA-4F88014BA773}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{A9844351-A384-4D60-9D4F-5427B662DD51}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
